--- a/02-intermediate/161-hands-on-07.xlsx
+++ b/02-intermediate/161-hands-on-07.xlsx
@@ -4114,7 +4114,7 @@
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="68" zoomScalePageLayoutView="58" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7257,15 +7257,13 @@
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="81" fitToWidth="2" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="1" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="84" fitToWidth="2" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;LMCLEOD&amp;C&amp;G&amp;R&amp;P of &amp;N</oddHeader>
-    <oddFooter>&amp;L&amp;Z&amp;F
-&amp;F
-&amp;A
-&amp;R&amp;D
-&amp;T</oddFooter>
+    <oddHeader>&amp;LMcLeod&amp;C&amp;G&amp;R&amp;T
+&amp;D</oddHeader>
+    <oddFooter>&amp;L&amp;F
+&amp;Z&amp;F&amp;R&amp;P of &amp;N</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
